--- a/leetcode.xlsx
+++ b/leetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\LeetCode-Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66802494-1DEA-4E9C-BDF2-F8472D87B1C6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1397133B-ADC3-4FAF-B369-0F2E00E3222A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3099" uniqueCount="1250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3121" uniqueCount="1255">
   <si>
     <t>题号</t>
   </si>
@@ -3770,6 +3770,21 @@
   </si>
   <si>
     <t>中</t>
+  </si>
+  <si>
+    <t>弱</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>array</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>强</t>
   </si>
 </sst>
 </file>
@@ -4628,15 +4643,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G619"/>
+  <dimension ref="A1:H619"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4658,8 +4673,11 @@
       <c r="G1" t="s">
         <v>1248</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4681,8 +4699,11 @@
       <c r="G2" t="s">
         <v>1249</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4702,7 +4723,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4722,7 +4743,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4742,7 +4763,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4762,7 +4783,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4782,7 +4803,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4802,7 +4823,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4822,7 +4843,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4842,7 +4863,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4862,7 +4883,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4882,7 +4903,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4902,7 +4923,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4922,7 +4943,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4941,8 +4962,14 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="G15" t="s">
+        <v>1250</v>
+      </c>
+      <c r="H15" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4961,8 +4988,14 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="G16" t="s">
+        <v>1250</v>
+      </c>
+      <c r="H16" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4982,7 +5015,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>17</v>
       </c>
@@ -5002,7 +5035,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>18</v>
       </c>
@@ -5022,7 +5055,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>19</v>
       </c>
@@ -5042,7 +5075,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>20</v>
       </c>
@@ -5062,7 +5095,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>21</v>
       </c>
@@ -5082,7 +5115,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>22</v>
       </c>
@@ -5102,7 +5135,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>23</v>
       </c>
@@ -5122,7 +5155,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>24</v>
       </c>
@@ -5142,7 +5175,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>25</v>
       </c>
@@ -5162,7 +5195,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>26</v>
       </c>
@@ -5184,8 +5217,11 @@
       <c r="G27" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>27</v>
       </c>
@@ -5205,7 +5241,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>28</v>
       </c>
@@ -5225,7 +5261,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>29</v>
       </c>
@@ -5245,7 +5281,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>30</v>
       </c>
@@ -5265,7 +5301,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:8">
       <c r="A32">
         <v>31</v>
       </c>
@@ -5605,7 +5641,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:7">
       <c r="A49">
         <v>48</v>
       </c>
@@ -5625,7 +5661,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:7">
       <c r="A50">
         <v>49</v>
       </c>
@@ -5644,8 +5680,11 @@
       <c r="F50" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="G50" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51">
         <v>50</v>
       </c>
@@ -5665,7 +5704,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:7">
       <c r="A52">
         <v>51</v>
       </c>
@@ -5685,7 +5724,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:7">
       <c r="A53">
         <v>52</v>
       </c>
@@ -5705,7 +5744,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:7">
       <c r="A54">
         <v>53</v>
       </c>
@@ -5725,7 +5764,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:7">
       <c r="A55">
         <v>54</v>
       </c>
@@ -5745,7 +5784,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:7">
       <c r="A56">
         <v>55</v>
       </c>
@@ -5765,7 +5804,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:7">
       <c r="A57">
         <v>56</v>
       </c>
@@ -5785,7 +5824,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:7">
       <c r="A58">
         <v>57</v>
       </c>
@@ -5805,7 +5844,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:7">
       <c r="A59">
         <v>58</v>
       </c>
@@ -5825,7 +5864,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:7">
       <c r="A60">
         <v>59</v>
       </c>
@@ -5845,7 +5884,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:7">
       <c r="A61">
         <v>60</v>
       </c>
@@ -5865,7 +5904,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:7">
       <c r="A62">
         <v>61</v>
       </c>
@@ -5885,7 +5924,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:7">
       <c r="A63">
         <v>62</v>
       </c>
@@ -5905,7 +5944,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:7">
       <c r="A64">
         <v>63</v>
       </c>
@@ -5925,7 +5964,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:8">
       <c r="A65">
         <v>64</v>
       </c>
@@ -5945,7 +5984,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:8">
       <c r="A66">
         <v>65</v>
       </c>
@@ -5965,7 +6004,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:8">
       <c r="A67">
         <v>66</v>
       </c>
@@ -5984,8 +6023,14 @@
       <c r="F67" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="68" spans="1:6">
+      <c r="G67" t="s">
+        <v>1249</v>
+      </c>
+      <c r="H67" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68">
         <v>67</v>
       </c>
@@ -6005,7 +6050,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:8">
       <c r="A69">
         <v>68</v>
       </c>
@@ -6025,7 +6070,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:8">
       <c r="A70">
         <v>69</v>
       </c>
@@ -6045,7 +6090,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:8">
       <c r="A71">
         <v>70</v>
       </c>
@@ -6065,7 +6110,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:8">
       <c r="A72">
         <v>71</v>
       </c>
@@ -6085,7 +6130,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:8">
       <c r="A73">
         <v>72</v>
       </c>
@@ -6105,7 +6150,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:8">
       <c r="A74">
         <v>73</v>
       </c>
@@ -6124,8 +6169,14 @@
       <c r="F74" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="75" spans="1:6">
+      <c r="G74" t="s">
+        <v>1250</v>
+      </c>
+      <c r="H74" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75">
         <v>74</v>
       </c>
@@ -6145,7 +6196,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:8">
       <c r="A76">
         <v>75</v>
       </c>
@@ -6165,7 +6216,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:8">
       <c r="A77">
         <v>76</v>
       </c>
@@ -6185,7 +6236,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:8">
       <c r="A78">
         <v>77</v>
       </c>
@@ -6205,7 +6256,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:8">
       <c r="A79">
         <v>78</v>
       </c>
@@ -6225,7 +6276,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:8">
       <c r="A80">
         <v>79</v>
       </c>
@@ -6245,7 +6296,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:7">
       <c r="A81">
         <v>80</v>
       </c>
@@ -6265,7 +6316,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:7">
       <c r="A82">
         <v>81</v>
       </c>
@@ -6285,7 +6336,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:7">
       <c r="A83">
         <v>82</v>
       </c>
@@ -6305,7 +6356,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:7">
       <c r="A84">
         <v>83</v>
       </c>
@@ -6325,7 +6376,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:7">
       <c r="A85">
         <v>84</v>
       </c>
@@ -6345,7 +6396,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:7">
       <c r="A86">
         <v>85</v>
       </c>
@@ -6365,7 +6416,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:7">
       <c r="A87">
         <v>86</v>
       </c>
@@ -6385,7 +6436,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:7">
       <c r="A88">
         <v>87</v>
       </c>
@@ -6405,7 +6456,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:7">
       <c r="A89">
         <v>88</v>
       </c>
@@ -6424,8 +6475,11 @@
       <c r="F89" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="90" spans="1:6">
+      <c r="G89" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90">
         <v>89</v>
       </c>
@@ -6445,7 +6499,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:7">
       <c r="A91">
         <v>90</v>
       </c>
@@ -6465,7 +6519,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:7">
       <c r="A92">
         <v>91</v>
       </c>
@@ -6485,7 +6539,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:7">
       <c r="A93">
         <v>92</v>
       </c>
@@ -6505,7 +6559,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:7">
       <c r="A94">
         <v>93</v>
       </c>
@@ -6525,7 +6579,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:7">
       <c r="A95">
         <v>94</v>
       </c>
@@ -6545,7 +6599,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:7">
       <c r="A96">
         <v>95</v>
       </c>
@@ -6885,7 +6939,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:8">
       <c r="A113">
         <v>112</v>
       </c>
@@ -6905,7 +6959,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:8">
       <c r="A114">
         <v>113</v>
       </c>
@@ -6925,7 +6979,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:8">
       <c r="A115">
         <v>114</v>
       </c>
@@ -6945,7 +6999,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:8">
       <c r="A116">
         <v>115</v>
       </c>
@@ -6965,7 +7019,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:8">
       <c r="A117">
         <v>116</v>
       </c>
@@ -6985,7 +7039,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:8">
       <c r="A118">
         <v>117</v>
       </c>
@@ -7005,7 +7059,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:8">
       <c r="A119">
         <v>118</v>
       </c>
@@ -7025,7 +7079,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:8">
       <c r="A120">
         <v>119</v>
       </c>
@@ -7045,7 +7099,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:8">
       <c r="A121">
         <v>120</v>
       </c>
@@ -7065,7 +7119,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:8">
       <c r="A122">
         <v>121</v>
       </c>
@@ -7084,8 +7138,14 @@
       <c r="F122" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="123" spans="1:6">
+      <c r="G122" t="s">
+        <v>6</v>
+      </c>
+      <c r="H122" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123">
         <v>122</v>
       </c>
@@ -7105,7 +7165,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:8">
       <c r="A124">
         <v>123</v>
       </c>
@@ -7125,7 +7185,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:8">
       <c r="A125">
         <v>124</v>
       </c>
@@ -7145,7 +7205,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:8">
       <c r="A126">
         <v>125</v>
       </c>
@@ -7165,7 +7225,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:8">
       <c r="A127">
         <v>126</v>
       </c>
@@ -7185,7 +7245,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:8">
       <c r="A128">
         <v>127</v>
       </c>
@@ -7205,7 +7265,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:8">
       <c r="A129">
         <v>128</v>
       </c>
@@ -7225,7 +7285,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:8">
       <c r="A130">
         <v>129</v>
       </c>
@@ -7245,7 +7305,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:8">
       <c r="A131">
         <v>130</v>
       </c>
@@ -7265,7 +7325,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:8">
       <c r="A132">
         <v>131</v>
       </c>
@@ -7285,7 +7345,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:8">
       <c r="A133">
         <v>132</v>
       </c>
@@ -7305,7 +7365,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:8">
       <c r="A134">
         <v>133</v>
       </c>
@@ -7325,7 +7385,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:8">
       <c r="A135">
         <v>134</v>
       </c>
@@ -7345,7 +7405,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:8">
       <c r="A136">
         <v>135</v>
       </c>
@@ -7365,7 +7425,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:8">
       <c r="A137">
         <v>136</v>
       </c>
@@ -7384,8 +7444,14 @@
       <c r="F137" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="138" spans="1:6">
+      <c r="G137" t="s">
+        <v>6</v>
+      </c>
+      <c r="H137" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
       <c r="A138">
         <v>137</v>
       </c>
@@ -7405,7 +7471,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:8">
       <c r="A139">
         <v>138</v>
       </c>
@@ -7425,7 +7491,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:8">
       <c r="A140">
         <v>139</v>
       </c>
@@ -7445,7 +7511,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:8">
       <c r="A141">
         <v>140</v>
       </c>
@@ -7465,7 +7531,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:8">
       <c r="A142">
         <v>141</v>
       </c>
@@ -7485,7 +7551,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:8">
       <c r="A143">
         <v>142</v>
       </c>
@@ -7505,7 +7571,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:8">
       <c r="A144">
         <v>143</v>
       </c>
@@ -9765,7 +9831,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="257" spans="1:6">
+    <row r="257" spans="1:8">
       <c r="A257">
         <v>273</v>
       </c>
@@ -9785,7 +9851,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="258" spans="1:6">
+    <row r="258" spans="1:8">
       <c r="A258">
         <v>274</v>
       </c>
@@ -9805,7 +9871,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="259" spans="1:6">
+    <row r="259" spans="1:8">
       <c r="A259">
         <v>275</v>
       </c>
@@ -9825,7 +9891,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="260" spans="1:6">
+    <row r="260" spans="1:8">
       <c r="A260">
         <v>276</v>
       </c>
@@ -9845,7 +9911,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="261" spans="1:6">
+    <row r="261" spans="1:8">
       <c r="A261">
         <v>277</v>
       </c>
@@ -9865,7 +9931,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="262" spans="1:6">
+    <row r="262" spans="1:8">
       <c r="A262">
         <v>278</v>
       </c>
@@ -9884,8 +9950,11 @@
       <c r="F262" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="263" spans="1:6">
+      <c r="G262" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8">
       <c r="A263">
         <v>279</v>
       </c>
@@ -9905,7 +9974,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="264" spans="1:6">
+    <row r="264" spans="1:8">
       <c r="A264">
         <v>280</v>
       </c>
@@ -9925,7 +9994,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="265" spans="1:6">
+    <row r="265" spans="1:8">
       <c r="A265">
         <v>281</v>
       </c>
@@ -9945,7 +10014,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="266" spans="1:6">
+    <row r="266" spans="1:8">
       <c r="A266">
         <v>282</v>
       </c>
@@ -9965,7 +10034,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="267" spans="1:6">
+    <row r="267" spans="1:8">
       <c r="A267">
         <v>283</v>
       </c>
@@ -9984,8 +10053,14 @@
       <c r="F267" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="268" spans="1:6">
+      <c r="G267" t="s">
+        <v>1250</v>
+      </c>
+      <c r="H267" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8">
       <c r="A268">
         <v>284</v>
       </c>
@@ -10005,7 +10080,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="269" spans="1:6">
+    <row r="269" spans="1:8">
       <c r="A269">
         <v>285</v>
       </c>
@@ -10025,7 +10100,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="270" spans="1:6">
+    <row r="270" spans="1:8">
       <c r="A270">
         <v>286</v>
       </c>
@@ -10045,7 +10120,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="271" spans="1:6">
+    <row r="271" spans="1:8">
       <c r="A271">
         <v>287</v>
       </c>
@@ -10065,7 +10140,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="272" spans="1:6">
+    <row r="272" spans="1:8">
       <c r="A272">
         <v>288</v>
       </c>
@@ -11045,7 +11120,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="321" spans="1:6">
+    <row r="321" spans="1:8">
       <c r="A321">
         <v>337</v>
       </c>
@@ -11065,7 +11140,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="322" spans="1:6">
+    <row r="322" spans="1:8">
       <c r="A322">
         <v>338</v>
       </c>
@@ -11085,7 +11160,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="323" spans="1:6">
+    <row r="323" spans="1:8">
       <c r="A323">
         <v>339</v>
       </c>
@@ -11105,7 +11180,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="324" spans="1:6">
+    <row r="324" spans="1:8">
       <c r="A324">
         <v>340</v>
       </c>
@@ -11125,7 +11200,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="325" spans="1:6">
+    <row r="325" spans="1:8">
       <c r="A325">
         <v>341</v>
       </c>
@@ -11145,7 +11220,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="326" spans="1:6">
+    <row r="326" spans="1:8">
       <c r="A326">
         <v>342</v>
       </c>
@@ -11165,7 +11240,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="327" spans="1:6">
+    <row r="327" spans="1:8">
       <c r="A327">
         <v>343</v>
       </c>
@@ -11185,7 +11260,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="328" spans="1:6">
+    <row r="328" spans="1:8">
       <c r="A328">
         <v>344</v>
       </c>
@@ -11204,8 +11279,14 @@
       <c r="F328" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="329" spans="1:6">
+      <c r="G328" t="s">
+        <v>1254</v>
+      </c>
+      <c r="H328" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8">
       <c r="A329">
         <v>345</v>
       </c>
@@ -11225,7 +11306,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="330" spans="1:6">
+    <row r="330" spans="1:8">
       <c r="A330">
         <v>346</v>
       </c>
@@ -11245,7 +11326,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="331" spans="1:6">
+    <row r="331" spans="1:8">
       <c r="A331">
         <v>347</v>
       </c>
@@ -11265,7 +11346,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="332" spans="1:6">
+    <row r="332" spans="1:8">
       <c r="A332">
         <v>348</v>
       </c>
@@ -11285,7 +11366,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="333" spans="1:6">
+    <row r="333" spans="1:8">
       <c r="A333">
         <v>349</v>
       </c>
@@ -11305,7 +11386,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="334" spans="1:6">
+    <row r="334" spans="1:8">
       <c r="A334">
         <v>350</v>
       </c>
@@ -11325,7 +11406,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="335" spans="1:6">
+    <row r="335" spans="1:8">
       <c r="A335">
         <v>351</v>
       </c>
@@ -11345,7 +11426,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="336" spans="1:6">
+    <row r="336" spans="1:8">
       <c r="A336">
         <v>352</v>
       </c>

--- a/leetcode.xlsx
+++ b/leetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\LeetCode-Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1397133B-ADC3-4FAF-B369-0F2E00E3222A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED4BA1C-BB69-4921-9131-8182331D0F9B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3121" uniqueCount="1255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3131" uniqueCount="1256">
   <si>
     <t>题号</t>
   </si>
@@ -3785,6 +3785,9 @@
   </si>
   <si>
     <t>强</t>
+  </si>
+  <si>
+    <t>tree</t>
   </si>
 </sst>
 </file>
@@ -4645,8 +4648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H619"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="I168" sqref="I168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4742,6 +4745,12 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
+      <c r="G4" t="s">
+        <v>1250</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1253</v>
+      </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
@@ -6619,7 +6628,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:8">
       <c r="A97">
         <v>96</v>
       </c>
@@ -6639,7 +6648,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:8">
       <c r="A98">
         <v>97</v>
       </c>
@@ -6659,7 +6668,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:8">
       <c r="A99">
         <v>98</v>
       </c>
@@ -6678,8 +6687,14 @@
       <c r="F99" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99" t="s">
+        <v>1250</v>
+      </c>
+      <c r="H99" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100">
         <v>99</v>
       </c>
@@ -6699,7 +6714,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:8">
       <c r="A101">
         <v>100</v>
       </c>
@@ -6719,7 +6734,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:8">
       <c r="A102">
         <v>101</v>
       </c>
@@ -6739,7 +6754,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:8">
       <c r="A103">
         <v>102</v>
       </c>
@@ -6759,7 +6774,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:8">
       <c r="A104">
         <v>103</v>
       </c>
@@ -6779,7 +6794,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:8">
       <c r="A105">
         <v>104</v>
       </c>
@@ -6798,8 +6813,14 @@
       <c r="F105" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="106" spans="1:6">
+      <c r="G105" t="s">
+        <v>1254</v>
+      </c>
+      <c r="H105" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106">
         <v>105</v>
       </c>
@@ -6819,7 +6840,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:8">
       <c r="A107">
         <v>106</v>
       </c>
@@ -6839,7 +6860,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:8">
       <c r="A108">
         <v>107</v>
       </c>
@@ -6859,7 +6880,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:8">
       <c r="A109">
         <v>108</v>
       </c>
@@ -6879,7 +6900,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:8">
       <c r="A110">
         <v>109</v>
       </c>
@@ -6899,7 +6920,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:8">
       <c r="A111">
         <v>110</v>
       </c>
@@ -6919,7 +6940,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:8">
       <c r="A112">
         <v>111</v>
       </c>
@@ -7139,7 +7160,7 @@
         <v>11</v>
       </c>
       <c r="G122" t="s">
-        <v>6</v>
+        <v>1254</v>
       </c>
       <c r="H122" t="s">
         <v>1252</v>
@@ -7164,6 +7185,12 @@
       <c r="F123" t="s">
         <v>11</v>
       </c>
+      <c r="G123" t="s">
+        <v>1250</v>
+      </c>
+      <c r="H123" t="s">
+        <v>1252</v>
+      </c>
     </row>
     <row r="124" spans="1:8">
       <c r="A124">
@@ -7911,7 +7938,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:8">
       <c r="A161">
         <v>160</v>
       </c>
@@ -7931,7 +7958,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:8">
       <c r="A162">
         <v>161</v>
       </c>
@@ -7951,7 +7978,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:8">
       <c r="A163">
         <v>162</v>
       </c>
@@ -7971,7 +7998,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:8">
       <c r="A164">
         <v>163</v>
       </c>
@@ -7991,7 +8018,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:8">
       <c r="A165">
         <v>164</v>
       </c>
@@ -8011,7 +8038,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:8">
       <c r="A166">
         <v>165</v>
       </c>
@@ -8031,7 +8058,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:8">
       <c r="A167">
         <v>166</v>
       </c>
@@ -8051,7 +8078,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:8">
       <c r="A168">
         <v>167</v>
       </c>
@@ -8070,8 +8097,14 @@
       <c r="F168" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="169" spans="1:6">
+      <c r="G168" t="s">
+        <v>1254</v>
+      </c>
+      <c r="H168" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
       <c r="A169">
         <v>168</v>
       </c>
@@ -8091,7 +8124,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:8">
       <c r="A170">
         <v>169</v>
       </c>
@@ -8111,7 +8144,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:8">
       <c r="A171">
         <v>170</v>
       </c>
@@ -8131,7 +8164,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:8">
       <c r="A172">
         <v>171</v>
       </c>
@@ -8151,7 +8184,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:8">
       <c r="A173">
         <v>172</v>
       </c>
@@ -8171,7 +8204,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:8">
       <c r="A174">
         <v>173</v>
       </c>
@@ -8191,7 +8224,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:8">
       <c r="A175">
         <v>174</v>
       </c>
@@ -8211,7 +8244,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:8">
       <c r="A176">
         <v>179</v>
       </c>

--- a/leetcode.xlsx
+++ b/leetcode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\LeetCode-Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED4BA1C-BB69-4921-9131-8182331D0F9B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2070BC94-42DA-4BD2-A99B-C8F026CB487E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1103" yWindow="1103" windowWidth="14400" windowHeight="7372" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="leetcode" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3131" uniqueCount="1256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3149" uniqueCount="1257">
   <si>
     <t>题号</t>
   </si>
@@ -3788,6 +3788,9 @@
   </si>
   <si>
     <t>tree</t>
+  </si>
+  <si>
+    <t>binary search</t>
   </si>
 </sst>
 </file>
@@ -4648,8 +4651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H619"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="I168" sqref="I168"/>
+    <sheetView tabSelected="1" topLeftCell="A326" workbookViewId="0">
+      <selection activeCell="I333" sqref="I333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6098,6 +6101,12 @@
       <c r="F70" t="s">
         <v>11</v>
       </c>
+      <c r="G70" t="s">
+        <v>1254</v>
+      </c>
+      <c r="H70" t="s">
+        <v>1256</v>
+      </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71">
@@ -8143,6 +8152,12 @@
       <c r="F170" t="s">
         <v>11</v>
       </c>
+      <c r="G170" t="s">
+        <v>1249</v>
+      </c>
+      <c r="H170" t="s">
+        <v>1252</v>
+      </c>
     </row>
     <row r="171" spans="1:8">
       <c r="A171">
@@ -8904,7 +8919,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="209" spans="1:6">
+    <row r="209" spans="1:8">
       <c r="A209">
         <v>224</v>
       </c>
@@ -8924,7 +8939,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="210" spans="1:6">
+    <row r="210" spans="1:8">
       <c r="A210">
         <v>225</v>
       </c>
@@ -8944,7 +8959,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="211" spans="1:6">
+    <row r="211" spans="1:8">
       <c r="A211">
         <v>226</v>
       </c>
@@ -8964,7 +8979,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="212" spans="1:6">
+    <row r="212" spans="1:8">
       <c r="A212">
         <v>227</v>
       </c>
@@ -8984,7 +8999,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="213" spans="1:6">
+    <row r="213" spans="1:8">
       <c r="A213">
         <v>228</v>
       </c>
@@ -9004,7 +9019,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="214" spans="1:6">
+    <row r="214" spans="1:8">
       <c r="A214">
         <v>229</v>
       </c>
@@ -9024,7 +9039,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="215" spans="1:6">
+    <row r="215" spans="1:8">
       <c r="A215">
         <v>230</v>
       </c>
@@ -9044,7 +9059,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="216" spans="1:6">
+    <row r="216" spans="1:8">
       <c r="A216">
         <v>231</v>
       </c>
@@ -9064,7 +9079,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="217" spans="1:6">
+    <row r="217" spans="1:8">
       <c r="A217">
         <v>232</v>
       </c>
@@ -9084,7 +9099,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="218" spans="1:6">
+    <row r="218" spans="1:8">
       <c r="A218">
         <v>233</v>
       </c>
@@ -9104,7 +9119,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="219" spans="1:6">
+    <row r="219" spans="1:8">
       <c r="A219">
         <v>234</v>
       </c>
@@ -9123,8 +9138,14 @@
       <c r="F219" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="220" spans="1:6">
+      <c r="G219" t="s">
+        <v>1254</v>
+      </c>
+      <c r="H219" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8">
       <c r="A220">
         <v>235</v>
       </c>
@@ -9144,7 +9165,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="221" spans="1:6">
+    <row r="221" spans="1:8">
       <c r="A221">
         <v>236</v>
       </c>
@@ -9164,7 +9185,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="222" spans="1:6">
+    <row r="222" spans="1:8">
       <c r="A222">
         <v>237</v>
       </c>
@@ -9184,7 +9205,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="223" spans="1:6">
+    <row r="223" spans="1:8">
       <c r="A223">
         <v>238</v>
       </c>
@@ -9204,7 +9225,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="224" spans="1:6">
+    <row r="224" spans="1:8">
       <c r="A224">
         <v>239</v>
       </c>
@@ -9544,7 +9565,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="241" spans="1:6">
+    <row r="241" spans="1:8">
       <c r="A241">
         <v>256</v>
       </c>
@@ -9564,7 +9585,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="242" spans="1:6">
+    <row r="242" spans="1:8">
       <c r="A242">
         <v>257</v>
       </c>
@@ -9584,7 +9605,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="243" spans="1:6">
+    <row r="243" spans="1:8">
       <c r="A243">
         <v>258</v>
       </c>
@@ -9604,7 +9625,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="244" spans="1:6">
+    <row r="244" spans="1:8">
       <c r="A244">
         <v>259</v>
       </c>
@@ -9624,7 +9645,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="245" spans="1:6">
+    <row r="245" spans="1:8">
       <c r="A245">
         <v>260</v>
       </c>
@@ -9644,7 +9665,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="246" spans="1:6">
+    <row r="246" spans="1:8">
       <c r="A246">
         <v>261</v>
       </c>
@@ -9664,7 +9685,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="247" spans="1:6">
+    <row r="247" spans="1:8">
       <c r="A247">
         <v>263</v>
       </c>
@@ -9684,7 +9705,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="248" spans="1:6">
+    <row r="248" spans="1:8">
       <c r="A248">
         <v>264</v>
       </c>
@@ -9704,7 +9725,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="249" spans="1:6">
+    <row r="249" spans="1:8">
       <c r="A249">
         <v>265</v>
       </c>
@@ -9724,7 +9745,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="250" spans="1:6">
+    <row r="250" spans="1:8">
       <c r="A250">
         <v>266</v>
       </c>
@@ -9744,7 +9765,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="251" spans="1:6">
+    <row r="251" spans="1:8">
       <c r="A251">
         <v>267</v>
       </c>
@@ -9764,7 +9785,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="252" spans="1:6">
+    <row r="252" spans="1:8">
       <c r="A252">
         <v>268</v>
       </c>
@@ -9783,8 +9804,14 @@
       <c r="F252" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="253" spans="1:6">
+      <c r="G252" t="s">
+        <v>1250</v>
+      </c>
+      <c r="H252" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8">
       <c r="A253">
         <v>269</v>
       </c>
@@ -9804,7 +9831,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="254" spans="1:6">
+    <row r="254" spans="1:8">
       <c r="A254">
         <v>270</v>
       </c>
@@ -9824,7 +9851,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="255" spans="1:6">
+    <row r="255" spans="1:8">
       <c r="A255">
         <v>271</v>
       </c>
@@ -9844,7 +9871,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="256" spans="1:6">
+    <row r="256" spans="1:8">
       <c r="A256">
         <v>272</v>
       </c>
@@ -11418,6 +11445,12 @@
       <c r="F333" t="s">
         <v>11</v>
       </c>
+      <c r="G333" t="s">
+        <v>1254</v>
+      </c>
+      <c r="H333" t="s">
+        <v>1252</v>
+      </c>
     </row>
     <row r="334" spans="1:8">
       <c r="A334">
@@ -12439,7 +12472,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="385" spans="1:6">
+    <row r="385" spans="1:8">
       <c r="A385">
         <v>401</v>
       </c>
@@ -12459,7 +12492,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="386" spans="1:6">
+    <row r="386" spans="1:8">
       <c r="A386">
         <v>402</v>
       </c>
@@ -12479,7 +12512,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="387" spans="1:6">
+    <row r="387" spans="1:8">
       <c r="A387">
         <v>403</v>
       </c>
@@ -12499,7 +12532,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="388" spans="1:6">
+    <row r="388" spans="1:8">
       <c r="A388">
         <v>404</v>
       </c>
@@ -12519,7 +12552,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="389" spans="1:6">
+    <row r="389" spans="1:8">
       <c r="A389">
         <v>405</v>
       </c>
@@ -12539,7 +12572,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="390" spans="1:6">
+    <row r="390" spans="1:8">
       <c r="A390">
         <v>406</v>
       </c>
@@ -12559,7 +12592,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="391" spans="1:6">
+    <row r="391" spans="1:8">
       <c r="A391">
         <v>407</v>
       </c>
@@ -12579,7 +12612,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="392" spans="1:6">
+    <row r="392" spans="1:8">
       <c r="A392">
         <v>408</v>
       </c>
@@ -12599,7 +12632,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="393" spans="1:6">
+    <row r="393" spans="1:8">
       <c r="A393">
         <v>409</v>
       </c>
@@ -12619,7 +12652,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="394" spans="1:6">
+    <row r="394" spans="1:8">
       <c r="A394">
         <v>410</v>
       </c>
@@ -12639,7 +12672,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="395" spans="1:6">
+    <row r="395" spans="1:8">
       <c r="A395">
         <v>411</v>
       </c>
@@ -12659,7 +12692,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="396" spans="1:6">
+    <row r="396" spans="1:8">
       <c r="A396">
         <v>412</v>
       </c>
@@ -12679,7 +12712,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="397" spans="1:6">
+    <row r="397" spans="1:8">
       <c r="A397">
         <v>413</v>
       </c>
@@ -12699,7 +12732,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="398" spans="1:6">
+    <row r="398" spans="1:8">
       <c r="A398">
         <v>414</v>
       </c>
@@ -12718,8 +12751,14 @@
       <c r="F398" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="399" spans="1:6">
+      <c r="G398" t="s">
+        <v>1250</v>
+      </c>
+      <c r="H398" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8">
       <c r="A399">
         <v>415</v>
       </c>
@@ -12739,7 +12778,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="400" spans="1:6">
+    <row r="400" spans="1:8">
       <c r="A400">
         <v>416</v>
       </c>
@@ -13079,7 +13118,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="417" spans="1:6">
+    <row r="417" spans="1:8">
       <c r="A417">
         <v>440</v>
       </c>
@@ -13099,7 +13138,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="418" spans="1:6">
+    <row r="418" spans="1:8">
       <c r="A418">
         <v>441</v>
       </c>
@@ -13119,7 +13158,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="419" spans="1:6">
+    <row r="419" spans="1:8">
       <c r="A419">
         <v>442</v>
       </c>
@@ -13139,7 +13178,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="420" spans="1:6">
+    <row r="420" spans="1:8">
       <c r="A420">
         <v>444</v>
       </c>
@@ -13159,7 +13198,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="421" spans="1:6">
+    <row r="421" spans="1:8">
       <c r="A421">
         <v>445</v>
       </c>
@@ -13179,7 +13218,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="422" spans="1:6">
+    <row r="422" spans="1:8">
       <c r="A422">
         <v>446</v>
       </c>
@@ -13199,7 +13238,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="423" spans="1:6">
+    <row r="423" spans="1:8">
       <c r="A423">
         <v>447</v>
       </c>
@@ -13219,7 +13258,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="424" spans="1:6">
+    <row r="424" spans="1:8">
       <c r="A424">
         <v>448</v>
       </c>
@@ -13238,8 +13277,14 @@
       <c r="F424" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="425" spans="1:6">
+      <c r="G424" t="s">
+        <v>1250</v>
+      </c>
+      <c r="H424" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="425" spans="1:8">
       <c r="A425">
         <v>449</v>
       </c>
@@ -13259,7 +13304,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="426" spans="1:6">
+    <row r="426" spans="1:8">
       <c r="A426">
         <v>450</v>
       </c>
@@ -13279,7 +13324,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="427" spans="1:6">
+    <row r="427" spans="1:8">
       <c r="A427">
         <v>451</v>
       </c>
@@ -13299,7 +13344,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="428" spans="1:6">
+    <row r="428" spans="1:8">
       <c r="A428">
         <v>452</v>
       </c>
@@ -13319,7 +13364,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="429" spans="1:6">
+    <row r="429" spans="1:8">
       <c r="A429">
         <v>453</v>
       </c>
@@ -13339,7 +13384,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="430" spans="1:6">
+    <row r="430" spans="1:8">
       <c r="A430">
         <v>454</v>
       </c>
@@ -13359,7 +13404,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="431" spans="1:6">
+    <row r="431" spans="1:8">
       <c r="A431">
         <v>455</v>
       </c>
@@ -13379,7 +13424,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="432" spans="1:6">
+    <row r="432" spans="1:8">
       <c r="A432">
         <v>456</v>
       </c>
@@ -13719,7 +13764,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="449" spans="1:6">
+    <row r="449" spans="1:8">
       <c r="A449">
         <v>476</v>
       </c>
@@ -13739,7 +13784,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="450" spans="1:6">
+    <row r="450" spans="1:8">
       <c r="A450">
         <v>477</v>
       </c>
@@ -13759,7 +13804,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="451" spans="1:6">
+    <row r="451" spans="1:8">
       <c r="A451">
         <v>479</v>
       </c>
@@ -13779,7 +13824,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="452" spans="1:6">
+    <row r="452" spans="1:8">
       <c r="A452">
         <v>480</v>
       </c>
@@ -13799,7 +13844,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="453" spans="1:6">
+    <row r="453" spans="1:8">
       <c r="A453">
         <v>481</v>
       </c>
@@ -13819,7 +13864,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="454" spans="1:6">
+    <row r="454" spans="1:8">
       <c r="A454">
         <v>482</v>
       </c>
@@ -13839,7 +13884,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="455" spans="1:6">
+    <row r="455" spans="1:8">
       <c r="A455">
         <v>483</v>
       </c>
@@ -13859,7 +13904,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="456" spans="1:6">
+    <row r="456" spans="1:8">
       <c r="A456">
         <v>484</v>
       </c>
@@ -13879,7 +13924,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="457" spans="1:6">
+    <row r="457" spans="1:8">
       <c r="A457">
         <v>485</v>
       </c>
@@ -13898,8 +13943,14 @@
       <c r="F457" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="458" spans="1:6">
+      <c r="G457" t="s">
+        <v>1254</v>
+      </c>
+      <c r="H457" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="458" spans="1:8">
       <c r="A458">
         <v>486</v>
       </c>
@@ -13919,7 +13970,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="459" spans="1:6">
+    <row r="459" spans="1:8">
       <c r="A459">
         <v>487</v>
       </c>
@@ -13939,7 +13990,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="460" spans="1:6">
+    <row r="460" spans="1:8">
       <c r="A460">
         <v>488</v>
       </c>
@@ -13959,7 +14010,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="461" spans="1:6">
+    <row r="461" spans="1:8">
       <c r="A461">
         <v>490</v>
       </c>
@@ -13979,7 +14030,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="462" spans="1:6">
+    <row r="462" spans="1:8">
       <c r="A462">
         <v>491</v>
       </c>
@@ -13999,7 +14050,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="463" spans="1:6">
+    <row r="463" spans="1:8">
       <c r="A463">
         <v>492</v>
       </c>
@@ -14019,7 +14070,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="464" spans="1:6">
+    <row r="464" spans="1:8">
       <c r="A464">
         <v>493</v>
       </c>
@@ -14359,7 +14410,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="481" spans="1:6">
+    <row r="481" spans="1:8">
       <c r="A481">
         <v>515</v>
       </c>
@@ -14379,7 +14430,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="482" spans="1:6">
+    <row r="482" spans="1:8">
       <c r="A482">
         <v>516</v>
       </c>
@@ -14399,7 +14450,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="483" spans="1:6">
+    <row r="483" spans="1:8">
       <c r="A483">
         <v>517</v>
       </c>
@@ -14419,7 +14470,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="484" spans="1:6">
+    <row r="484" spans="1:8">
       <c r="A484">
         <v>520</v>
       </c>
@@ -14439,7 +14490,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="485" spans="1:6">
+    <row r="485" spans="1:8">
       <c r="A485">
         <v>521</v>
       </c>
@@ -14459,7 +14510,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="486" spans="1:6">
+    <row r="486" spans="1:8">
       <c r="A486">
         <v>522</v>
       </c>
@@ -14479,7 +14530,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="487" spans="1:6">
+    <row r="487" spans="1:8">
       <c r="A487">
         <v>523</v>
       </c>
@@ -14499,7 +14550,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="488" spans="1:6">
+    <row r="488" spans="1:8">
       <c r="A488">
         <v>524</v>
       </c>
@@ -14519,7 +14570,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="489" spans="1:6">
+    <row r="489" spans="1:8">
       <c r="A489">
         <v>525</v>
       </c>
@@ -14539,7 +14590,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="490" spans="1:6">
+    <row r="490" spans="1:8">
       <c r="A490">
         <v>526</v>
       </c>
@@ -14559,7 +14610,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="491" spans="1:6">
+    <row r="491" spans="1:8">
       <c r="A491">
         <v>527</v>
       </c>
@@ -14579,7 +14630,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="492" spans="1:6">
+    <row r="492" spans="1:8">
       <c r="A492">
         <v>529</v>
       </c>
@@ -14599,7 +14650,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="493" spans="1:6">
+    <row r="493" spans="1:8">
       <c r="A493">
         <v>530</v>
       </c>
@@ -14619,7 +14670,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="494" spans="1:6">
+    <row r="494" spans="1:8">
       <c r="A494">
         <v>531</v>
       </c>
@@ -14639,7 +14690,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="495" spans="1:6">
+    <row r="495" spans="1:8">
       <c r="A495">
         <v>532</v>
       </c>
@@ -14658,8 +14709,14 @@
       <c r="F495" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="496" spans="1:6">
+      <c r="G495" t="s">
+        <v>1250</v>
+      </c>
+      <c r="H495" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="496" spans="1:8">
       <c r="A496">
         <v>533</v>
       </c>

--- a/leetcode.xlsx
+++ b/leetcode.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\LeetCode-Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2070BC94-42DA-4BD2-A99B-C8F026CB487E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68187DF1-B50B-4184-97BE-11DB9F024ABD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1103" yWindow="1103" windowWidth="14400" windowHeight="7372" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="leetcode" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3149" uniqueCount="1257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3163" uniqueCount="1259">
   <si>
     <t>题号</t>
   </si>
@@ -3791,6 +3791,12 @@
   </si>
   <si>
     <t>binary search</t>
+  </si>
+  <si>
+    <t>dp</t>
+  </si>
+  <si>
+    <t>array dp</t>
   </si>
 </sst>
 </file>
@@ -4651,8 +4657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H619"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A326" workbookViewId="0">
-      <selection activeCell="I333" sqref="I333"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4914,6 +4920,12 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
+      <c r="G12" t="s">
+        <v>1250</v>
+      </c>
+      <c r="H12" t="s">
+        <v>1252</v>
+      </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13">
@@ -5026,6 +5038,12 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
+      <c r="G17" t="s">
+        <v>1250</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1252</v>
+      </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18">
@@ -5653,7 +5671,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:8">
       <c r="A49">
         <v>48</v>
       </c>
@@ -5673,7 +5691,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:8">
       <c r="A50">
         <v>49</v>
       </c>
@@ -5696,7 +5714,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:8">
       <c r="A51">
         <v>50</v>
       </c>
@@ -5716,7 +5734,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:8">
       <c r="A52">
         <v>51</v>
       </c>
@@ -5736,7 +5754,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:8">
       <c r="A53">
         <v>52</v>
       </c>
@@ -5756,7 +5774,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:8">
       <c r="A54">
         <v>53</v>
       </c>
@@ -5775,8 +5793,14 @@
       <c r="F54" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="55" spans="1:7">
+      <c r="G54" t="s">
+        <v>1249</v>
+      </c>
+      <c r="H54" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55">
         <v>54</v>
       </c>
@@ -5796,7 +5820,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:8">
       <c r="A56">
         <v>55</v>
       </c>
@@ -5816,7 +5840,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:8">
       <c r="A57">
         <v>56</v>
       </c>
@@ -5836,7 +5860,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:8">
       <c r="A58">
         <v>57</v>
       </c>
@@ -5856,7 +5880,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:8">
       <c r="A59">
         <v>58</v>
       </c>
@@ -5876,7 +5900,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:8">
       <c r="A60">
         <v>59</v>
       </c>
@@ -5896,7 +5920,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:8">
       <c r="A61">
         <v>60</v>
       </c>
@@ -5916,7 +5940,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:8">
       <c r="A62">
         <v>61</v>
       </c>
@@ -5936,7 +5960,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:8">
       <c r="A63">
         <v>62</v>
       </c>
@@ -5956,7 +5980,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:8">
       <c r="A64">
         <v>63</v>
       </c>
@@ -6127,6 +6151,12 @@
       <c r="F71" t="s">
         <v>11</v>
       </c>
+      <c r="G71" t="s">
+        <v>1254</v>
+      </c>
+      <c r="H71" t="s">
+        <v>1257</v>
+      </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72">
@@ -7108,6 +7138,12 @@
       <c r="F119" t="s">
         <v>11</v>
       </c>
+      <c r="G119" t="s">
+        <v>1249</v>
+      </c>
+      <c r="H119" t="s">
+        <v>1252</v>
+      </c>
     </row>
     <row r="120" spans="1:8">
       <c r="A120">
@@ -7128,6 +7164,12 @@
       <c r="F120" t="s">
         <v>11</v>
       </c>
+      <c r="G120" t="s">
+        <v>1249</v>
+      </c>
+      <c r="H120" t="s">
+        <v>1252</v>
+      </c>
     </row>
     <row r="121" spans="1:8">
       <c r="A121">
@@ -7172,7 +7214,7 @@
         <v>1254</v>
       </c>
       <c r="H122" t="s">
-        <v>1252</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -8279,7 +8321,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177" spans="1:8">
       <c r="A177">
         <v>186</v>
       </c>
@@ -8299,7 +8341,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="1:6">
+    <row r="178" spans="1:8">
       <c r="A178">
         <v>187</v>
       </c>
@@ -8319,7 +8361,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="179" spans="1:6">
+    <row r="179" spans="1:8">
       <c r="A179">
         <v>188</v>
       </c>
@@ -8339,7 +8381,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180" spans="1:8">
       <c r="A180">
         <v>189</v>
       </c>
@@ -8359,7 +8401,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:8">
       <c r="A181">
         <v>190</v>
       </c>
@@ -8379,7 +8421,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182" spans="1:8">
       <c r="A182">
         <v>191</v>
       </c>
@@ -8399,7 +8441,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="183" spans="1:6">
+    <row r="183" spans="1:8">
       <c r="A183">
         <v>198</v>
       </c>
@@ -8418,8 +8460,14 @@
       <c r="F183" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="184" spans="1:6">
+      <c r="G183" t="s">
+        <v>1254</v>
+      </c>
+      <c r="H183" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
       <c r="A184">
         <v>199</v>
       </c>
@@ -8439,7 +8487,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="185" spans="1:6">
+    <row r="185" spans="1:8">
       <c r="A185">
         <v>200</v>
       </c>
@@ -8459,7 +8507,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="186" spans="1:6">
+    <row r="186" spans="1:8">
       <c r="A186">
         <v>201</v>
       </c>
@@ -8479,7 +8527,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="187" spans="1:6">
+    <row r="187" spans="1:8">
       <c r="A187">
         <v>202</v>
       </c>
@@ -8499,7 +8547,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="188" spans="1:6">
+    <row r="188" spans="1:8">
       <c r="A188">
         <v>203</v>
       </c>
@@ -8519,7 +8567,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="189" spans="1:6">
+    <row r="189" spans="1:8">
       <c r="A189">
         <v>204</v>
       </c>
@@ -8539,7 +8587,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="190" spans="1:6">
+    <row r="190" spans="1:8">
       <c r="A190">
         <v>205</v>
       </c>
@@ -8559,7 +8607,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="191" spans="1:6">
+    <row r="191" spans="1:8">
       <c r="A191">
         <v>206</v>
       </c>
@@ -8579,7 +8627,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="192" spans="1:6">
+    <row r="192" spans="1:8">
       <c r="A192">
         <v>207</v>
       </c>
